--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.5622667004629</v>
+        <v>240.8682165817983</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.3100473523515</v>
+        <v>329.5665202828074</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.0306323068939</v>
+        <v>298.1131541366306</v>
       </c>
       <c r="AD2" t="n">
-        <v>216562.2667004628</v>
+        <v>240868.2165817983</v>
       </c>
       <c r="AE2" t="n">
-        <v>296310.0473523515</v>
+        <v>329566.5202828074</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.77928197895473e-06</v>
+        <v>6.9926611316207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.020833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>268030.6323068939</v>
+        <v>298113.1541366305</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.7767760069056</v>
+        <v>113.0577174751552</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.8872308901678</v>
+        <v>154.690556803918</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.7274670999912</v>
+        <v>139.9271071721545</v>
       </c>
       <c r="AD3" t="n">
-        <v>100776.7760069056</v>
+        <v>113057.7174751552</v>
       </c>
       <c r="AE3" t="n">
-        <v>137887.2308901678</v>
+        <v>154690.556803918</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.788256430131508e-06</v>
+        <v>1.070978984479713e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>124727.4670999912</v>
+        <v>139927.1071721544</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.6145708720071</v>
+        <v>140.3783725132753</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.9761299414139</v>
+        <v>192.0718823292894</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.1812150839041</v>
+        <v>173.7408114544162</v>
       </c>
       <c r="AD2" t="n">
-        <v>128614.5708720071</v>
+        <v>140378.3725132753</v>
       </c>
       <c r="AE2" t="n">
-        <v>175976.1299414139</v>
+        <v>192071.8823292894</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.122219564613322e-06</v>
+        <v>9.763741014584691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.06875</v>
       </c>
       <c r="AH2" t="n">
-        <v>159181.2150839041</v>
+        <v>173740.8114544162</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.77622939732738</v>
+        <v>122.2183128081899</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1499947610567</v>
+        <v>167.2244874755133</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.2514689453066</v>
+        <v>151.2648170919389</v>
       </c>
       <c r="AD3" t="n">
-        <v>98776.22939732738</v>
+        <v>122218.3128081899</v>
       </c>
       <c r="AE3" t="n">
-        <v>135149.9947610567</v>
+        <v>167224.4874755132</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.749273048334143e-06</v>
+        <v>1.095900172922478e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>122251.4689453066</v>
+        <v>151264.8170919389</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0436741412479</v>
+        <v>138.9705591236294</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5125626793462</v>
+        <v>190.1456499412334</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0980303815794</v>
+        <v>171.9984159819915</v>
       </c>
       <c r="AD2" t="n">
-        <v>118043.6741412479</v>
+        <v>138970.5591236294</v>
       </c>
       <c r="AE2" t="n">
-        <v>161512.5626793462</v>
+        <v>190145.6499412334</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.978060590909971e-06</v>
+        <v>1.060196628557463e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.523958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>146098.0303815794</v>
+        <v>171998.4159819915</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.2137500773941</v>
+        <v>122.1856356321453</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.1675592602022</v>
+        <v>167.1797771216338</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.6449009729608</v>
+        <v>151.2243738314823</v>
       </c>
       <c r="AD2" t="n">
-        <v>111213.7500773941</v>
+        <v>122185.6356321453</v>
       </c>
       <c r="AE2" t="n">
-        <v>152167.5592602022</v>
+        <v>167179.7771216338</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.428672765351026e-06</v>
+        <v>1.102208257772158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.091666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>137644.9009729608</v>
+        <v>151224.3738314823</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.3361932972552</v>
+        <v>160.3439185452213</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.014170865115</v>
+        <v>219.3896232279102</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.688607891384</v>
+        <v>198.4513855023714</v>
       </c>
       <c r="AD2" t="n">
-        <v>140336.1932972552</v>
+        <v>160343.9185452213</v>
       </c>
       <c r="AE2" t="n">
-        <v>192014.170865115</v>
+        <v>219389.6232279102</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.436791020359504e-06</v>
+        <v>9.879866990388996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.10625</v>
       </c>
       <c r="AH2" t="n">
-        <v>173688.607891384</v>
+        <v>198451.3855023714</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.9484336203991</v>
+        <v>153.8257534565419</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.2201092022626</v>
+        <v>210.4711821924347</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.6840145696889</v>
+        <v>190.3841079622083</v>
       </c>
       <c r="AD2" t="n">
-        <v>141948.4336203991</v>
+        <v>153825.7534565419</v>
       </c>
       <c r="AE2" t="n">
-        <v>194220.1092022626</v>
+        <v>210471.1821924347</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.794436489258821e-06</v>
+        <v>9.06514632541016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.248958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>175684.0145696889</v>
+        <v>190384.1079622083</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.1766266482732</v>
+        <v>122.845746448885</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.6978359440805</v>
+        <v>168.0829698631304</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.7470249347227</v>
+        <v>152.0413671253697</v>
       </c>
       <c r="AD3" t="n">
-        <v>99176.6266482732</v>
+        <v>122845.746448885</v>
       </c>
       <c r="AE3" t="n">
-        <v>135697.8359440806</v>
+        <v>168082.9698631304</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.765378301913413e-06</v>
+        <v>1.090096782912426e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.702083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>122747.0249347227</v>
+        <v>152041.3671253697</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.2414582583855</v>
+        <v>171.9259770825544</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.3034796081471</v>
+        <v>235.236706683042</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.4232878701747</v>
+        <v>212.7860455540718</v>
       </c>
       <c r="AD2" t="n">
-        <v>152241.4582583855</v>
+        <v>171925.9770825544</v>
       </c>
       <c r="AE2" t="n">
-        <v>208303.4796081471</v>
+        <v>235236.706683042</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.035789096403037e-06</v>
+        <v>9.252315885098468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>188423.2878701747</v>
+        <v>212786.0455540718</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.13926163022909</v>
+        <v>121.8445021089712</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.6467114779644</v>
+        <v>166.7130231854782</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.700779715899</v>
+        <v>150.8021662359</v>
       </c>
       <c r="AD2" t="n">
-        <v>99139.26163022908</v>
+        <v>121844.5021089712</v>
       </c>
       <c r="AE2" t="n">
-        <v>135646.7114779644</v>
+        <v>166713.0231854782</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.609443736120122e-06</v>
+        <v>1.099443220065221e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>122700.779715899</v>
+        <v>150802.1662359</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.50369924343569</v>
+        <v>121.2089397221777</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.7771069813205</v>
+        <v>165.8434186888344</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.9141690519169</v>
+        <v>150.0155555719179</v>
       </c>
       <c r="AD3" t="n">
-        <v>98503.69924343569</v>
+        <v>121208.9397221777</v>
       </c>
       <c r="AE3" t="n">
-        <v>134777.1069813205</v>
+        <v>165843.4186888344</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.649560059546195e-06</v>
+        <v>1.107305964016237e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>121914.1690519169</v>
+        <v>150015.5555719179</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.6829289206168</v>
+        <v>129.889342598054</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.9682898677804</v>
+        <v>177.7203288559497</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.0372811506206</v>
+        <v>160.7589501020358</v>
       </c>
       <c r="AD2" t="n">
-        <v>106682.9289206168</v>
+        <v>129889.342598054</v>
       </c>
       <c r="AE2" t="n">
-        <v>145968.2898677804</v>
+        <v>177720.3288559497</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.411431332552572e-06</v>
+        <v>1.04045756970059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132037.2811506206</v>
+        <v>160758.9501020357</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.8027416930921</v>
+        <v>122.0091553705293</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1862700537619</v>
+        <v>166.9383090419313</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.2842821749887</v>
+        <v>151.0059511264039</v>
       </c>
       <c r="AD3" t="n">
-        <v>98802.7416930921</v>
+        <v>122009.1553705293</v>
       </c>
       <c r="AE3" t="n">
-        <v>135186.270053762</v>
+        <v>166938.3090419313</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.714605554167989e-06</v>
+        <v>1.098748970705775e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.777083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>122284.2821749887</v>
+        <v>151005.9511264039</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.408803840398</v>
+        <v>205.5945147191368</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.2115286059077</v>
+        <v>281.3034852284406</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.5225686829004</v>
+        <v>254.456275410242</v>
       </c>
       <c r="AD2" t="n">
-        <v>181408.803840398</v>
+        <v>205594.5147191368</v>
       </c>
       <c r="AE2" t="n">
-        <v>248211.5286059077</v>
+        <v>281303.4852284406</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.079772757842094e-06</v>
+        <v>7.600307211684444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.754166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>224522.5686829004</v>
+        <v>254456.275410242</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.2112192457721</v>
+        <v>124.3115892699392</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.1134111789819</v>
+        <v>170.0886006793171</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.0274996559779</v>
+        <v>153.8555833513807</v>
       </c>
       <c r="AD3" t="n">
-        <v>100211.2192457721</v>
+        <v>124311.5892699392</v>
       </c>
       <c r="AE3" t="n">
-        <v>137113.4111789819</v>
+        <v>170088.6006793171</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.781295630571004e-06</v>
+        <v>1.077011526915275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AH3" t="n">
-        <v>124027.4996559779</v>
+        <v>153855.5833513807</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4544061783777</v>
+        <v>121.5749791760377</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.1285914376801</v>
+        <v>166.3442500181263</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7050907812194</v>
+        <v>150.4685882620636</v>
       </c>
       <c r="AD2" t="n">
-        <v>110454.4061783777</v>
+        <v>121574.9791760377</v>
       </c>
       <c r="AE2" t="n">
-        <v>151128.5914376801</v>
+        <v>166344.2500181263</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.514885358175805e-06</v>
+        <v>1.105457311339508e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136705.0907812194</v>
+        <v>150468.5882620636</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.6379463475768</v>
+        <v>135.7578521607284</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.8526956619417</v>
+        <v>185.7498825399665</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.8828945321501</v>
+        <v>168.0221744520019</v>
       </c>
       <c r="AD2" t="n">
-        <v>114637.9463475768</v>
+        <v>135757.8521607284</v>
       </c>
       <c r="AE2" t="n">
-        <v>156852.6956619417</v>
+        <v>185749.8825399665</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.169485039078121e-06</v>
+        <v>1.081488599057741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.339583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>141882.8945321501</v>
+        <v>168022.1744520019</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0791185800367</v>
+        <v>143.6098889858244</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.4022799086239</v>
+        <v>196.4933857314739</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.3302026682758</v>
+        <v>177.7403327775166</v>
       </c>
       <c r="AD2" t="n">
-        <v>123079.1185800367</v>
+        <v>143609.8889858244</v>
       </c>
       <c r="AE2" t="n">
-        <v>168402.2799086239</v>
+        <v>196493.3857314739</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.733893753105771e-06</v>
+        <v>1.029080224907815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.771875</v>
       </c>
       <c r="AH2" t="n">
-        <v>152330.2026682758</v>
+        <v>177740.3327775167</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.2768049686457</v>
+        <v>212.813936991767</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.1356542768542</v>
+        <v>291.1814172802805</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.072181307358</v>
+        <v>263.3914714908222</v>
       </c>
       <c r="AD2" t="n">
-        <v>184276.8049686457</v>
+        <v>212813.936991767</v>
       </c>
       <c r="AE2" t="n">
-        <v>252135.6542768542</v>
+        <v>291181.4172802806</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.470070679633753e-06</v>
+        <v>8.253656676839694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.522916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>228072.181307358</v>
+        <v>263391.4714908222</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.0653554142284</v>
+        <v>124.0265271619636</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.2820779664916</v>
+        <v>169.6985661271324</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.0846305255221</v>
+        <v>153.5027731494395</v>
       </c>
       <c r="AD2" t="n">
-        <v>101065.3554142284</v>
+        <v>124026.5271619636</v>
       </c>
       <c r="AE2" t="n">
-        <v>138282.0779664916</v>
+        <v>169698.5661271324</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.578085628878928e-06</v>
+        <v>1.082471134118044e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.872916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>125084.6305255221</v>
+        <v>153502.7731494395</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.55714116955215</v>
+        <v>121.5183129172874</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.8502285823244</v>
+        <v>166.2667167429652</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.9803120299479</v>
+        <v>150.3984546538653</v>
       </c>
       <c r="AD3" t="n">
-        <v>98557.14116955215</v>
+        <v>121518.3129172874</v>
       </c>
       <c r="AE3" t="n">
-        <v>134850.2285823244</v>
+        <v>166266.7167429652</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.689795056401992e-06</v>
+        <v>1.104149222040633e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.816666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>121980.3120299479</v>
+        <v>150398.4546538653</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.4417714942063</v>
+        <v>184.2448407018627</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.5235099496788</v>
+        <v>252.0919193568779</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.5724942633258</v>
+        <v>228.0326203867617</v>
       </c>
       <c r="AD2" t="n">
-        <v>160441.7714942063</v>
+        <v>184244.8407018627</v>
       </c>
       <c r="AE2" t="n">
-        <v>219523.5099496788</v>
+        <v>252091.9193568779</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.420189444642468e-06</v>
+        <v>8.294009125714751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.49375</v>
       </c>
       <c r="AH2" t="n">
-        <v>198572.4942633258</v>
+        <v>228032.6203867617</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.69782212776734</v>
+        <v>123.5861426814444</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.4109585926458</v>
+        <v>169.0960126524942</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.3920881585831</v>
+        <v>152.9577265327314</v>
       </c>
       <c r="AD3" t="n">
-        <v>99697.82212776734</v>
+        <v>123586.1426814444</v>
       </c>
       <c r="AE3" t="n">
-        <v>136410.9585926459</v>
+        <v>169096.0126524942</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.772594527483834e-06</v>
+        <v>1.083165151394877e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.676041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>123392.0881585831</v>
+        <v>152957.7265327314</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.627945494817</v>
+        <v>286.0981251471615</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.5519678335588</v>
+        <v>391.4520765848299</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.9547273948234</v>
+        <v>354.092439802013</v>
       </c>
       <c r="AD2" t="n">
-        <v>249627.945494817</v>
+        <v>286098.1251471615</v>
       </c>
       <c r="AE2" t="n">
-        <v>341551.9678335588</v>
+        <v>391452.0765848299</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.671515077534118e-06</v>
+        <v>6.681256468884756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.428125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>308954.7273948233</v>
+        <v>354092.439802013</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.9233338310868</v>
+        <v>123.7373703139806</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.5066871735157</v>
+        <v>169.3029289710225</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.760785801215</v>
+        <v>153.1448950482283</v>
       </c>
       <c r="AD2" t="n">
-        <v>112923.3338310868</v>
+        <v>123737.3703139806</v>
       </c>
       <c r="AE2" t="n">
-        <v>154506.6871735157</v>
+        <v>169302.9289710225</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.301199610922042e-06</v>
+        <v>1.091667266695952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>139760.785801215</v>
+        <v>153144.8950482283</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.6747022312213</v>
+        <v>121.1119760341965</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.011080813328</v>
+        <v>165.7107486932025</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1258127497821</v>
+        <v>149.8955474144656</v>
       </c>
       <c r="AD2" t="n">
-        <v>98674.70223122131</v>
+        <v>121111.9760341965</v>
       </c>
       <c r="AE2" t="n">
-        <v>135011.080813328</v>
+        <v>165710.7486932025</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.582819140168642e-06</v>
+        <v>1.106059257945918e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>122125.8127497821</v>
+        <v>149895.5474144656</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.12041364975765</v>
+        <v>121.5576874527328</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.6209228395691</v>
+        <v>166.3205907194436</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.6774523089577</v>
+        <v>150.4471869736411</v>
       </c>
       <c r="AD3" t="n">
-        <v>99120.41364975765</v>
+        <v>121557.6874527328</v>
       </c>
       <c r="AE3" t="n">
-        <v>135620.9228395692</v>
+        <v>166320.5907194436</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.58093246834792e-06</v>
+        <v>1.105685473522382e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.934375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>122677.4523089577</v>
+        <v>150447.1869736411</v>
       </c>
     </row>
   </sheetData>
